--- a/output/fit_clients/fit_round_77.xlsx
+++ b/output/fit_clients/fit_round_77.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8492239767.019067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003994062522212366</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.971960228178162</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9226923333980096</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.971960228178162</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5329205293.43617</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004060578894406582</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.348776924020039</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8596626519647812</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.348776924020039</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4302553680.588545</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.00243162433231327</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.446035435218709</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.693064555727155</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.7347338936073144</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.693064555727155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3229421113.86391</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004630898042961782</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.49519262153136</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.802221685165489</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.49519262153136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5768478092.375055</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.00294350025738757</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.353084583239263</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8409526410765249</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.353084583239263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6881651325.214907</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009744515909397704</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.403462314603174</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8738969604714033</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.403462314603174</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6897097147.512623</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002520094015368242</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8636762941430288</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.112158195748405</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.113761824237976</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.112158195748405</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4527895790.355078</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005405090695060332</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.700300101797589</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8607923049862503</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.700300101797589</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3538075793.339776</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003534761587292927</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.541938307776696</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9102929682242948</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.541938307776696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4505140947.605568</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001452213774483217</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.379607057916925</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7555311001072422</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.379607057916925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6991235425.588735</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001407569080434293</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4634972285719797</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.828161667252607</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7894329864218217</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.828161667252607</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5536251706.915125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004116951721609895</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5969102706708469</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.402833396611473</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.964364111778521</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.402833396611473</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7307137751.670316</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002214792242328123</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.931284430944152</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.873894299349989</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.931284430944152</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6136294255.238195</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003891694255026686</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.323616388922458</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9676921276353433</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.323616388922458</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7933312666.875738</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004987909814755722</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.009420332419693</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8915503003415675</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.009420332419693</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5823421158.846192</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002709475537631528</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.859647552411912</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9131403520503039</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.859647552411912</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6360906175.405532</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001038243063595956</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.892604021971954</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9013298242406468</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.892604021971954</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4564716169.764981</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.00143693677505528</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.742003990113542</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8922792540553112</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.742003990113542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4892185405.719893</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001227360791955123</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.000204791945804</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8050460586588546</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.000204791945804</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6984691912.228503</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004731516801875878</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.815171429425033</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.842107393195193</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.815171429425033</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5064050495.405398</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004750301884446132</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.478233357617297</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7572486883736493</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.478233357617297</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5781220680.91743</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001354032934984067</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.20278927099814</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8245768547450218</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.20278927099814</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7308498793.852698</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003162239804882009</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5399746275470051</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.842856326131766</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.8753129335728698</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.842856326131766</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4950927542.504859</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003535639058140683</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.263908892810121</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9209290521889049</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.263908892810121</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4427697090.483754</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001391642800318107</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>19</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.206077741726134</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.781307092199895</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.206077741726134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5564034152.049599</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003863158383380324</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5702887792655932</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.595087344908822</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.8486734261793241</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.595087344908822</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6957977878.196782</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.0056732278632428</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.859057354322029</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8842369168113973</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.859057354322029</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7022595548.67309</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001659149806482734</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.045644376779509</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9568951708519181</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.045644376779509</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5562558859.566376</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003673827147214336</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>16</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.441181018992593</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8562552452191073</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.441181018992593</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5629307613.839834</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002372224466894712</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.447730009709125</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9134988331774071</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.447730009709125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4210882627.937595</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001207907962112934</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>17</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.4117746746942165</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.786829713169908</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.6664479510368596</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.786829713169908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6318352956.792201</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003164984224558939</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.034499682844717</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8210210156132159</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.034499682844717</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>4927988294.458408</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003976641825488166</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.796441605531792</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7225792081547999</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.796441605531792</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6995416683.733078</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002274411624358088</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.643263228310685</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.8926435076819214</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.643263228310685</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>8096506398.334361</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003476833805705837</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.732501426187999</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9826763978072092</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.732501426187999</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4209057396.464501</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004776124429849906</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5147895999810828</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.547786685382041</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.8484406955751984</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.547786685382041</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3639256705.632384</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004259205779215175</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.489214405602751</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8686788217990071</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.489214405602751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5318496182.475699</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003041900585206044</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.026750532592614</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8343593489286352</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.026750532592614</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6324992260.007114</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004113484950771878</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>17</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.583611867872713</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.690053406903882</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.8985960858936094</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.690053406903882</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4850748364.676351</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.000975216466244039</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.084002757391388</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9074328056817859</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.084002757391388</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5166659831.476551</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004471870495230556</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.468818824444085</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9387405552537962</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.468818824444085</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6961217290.520144</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003502935721446366</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.690682044566715</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.168897315642931</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.690682044566715</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6028704221.73816</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001800923727905947</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>19</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5236062902393425</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.494593017266763</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.7936608090045146</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.494593017266763</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5757529579.04473</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001622567668370135</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.018706632681762</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9265547206846256</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.018706632681762</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7690489761.066267</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003778899024531083</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.59615842883884</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7912166533768396</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.59615842883884</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9827325771.824198</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003084169089384628</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.566499056809446</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8649324980467652</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.566499056809446</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8041004052.309237</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002958304581881341</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.251595456755648</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9251502537783997</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.251595456755648</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3709319086.158831</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004949341467533863</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>19</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.50655505410303</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8285042746440793</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.50655505410303</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6335928586.189953</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003167172504936946</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.632950725007484</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9925371196959384</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.632950725007484</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4636301873.022833</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004693385672639034</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>18</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.502249109236335</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9120755371141863</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.502249109236335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6875168800.123344</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00144678832365337</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.764881341980932</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8343593489286352</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.764881341980932</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4574155342.440718</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003092417290450447</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.750946086070756</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8944599508462322</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.750946086070756</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6110541119.451936</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005482153417604055</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.419764019831446</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8170590492116296</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.419764019831446</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7976579134.186535</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003019293908515086</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.562121968738637</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8764930536052787</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.562121968738637</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>3990803996.196428</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002539007931251937</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9125448927689793</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.606744267367732</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.095490332446613</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.606744267367732</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6190140104.138923</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004394556924438823</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.606833356186631</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.7969406936011723</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.606833356186631</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6268742691.938027</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001750391567924627</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
         <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.35163474821268</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7977561020110603</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.35163474821268</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5187074236.565807</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003243028892191758</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>14</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.777864668006395</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.698222586904351</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9932976316061319</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.698222586904351</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5788263569.138587</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002785063872758648</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>16</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8450298036827567</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.449109714928459</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9708531280544457</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.449109714928459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5911806221.134981</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005284271170086986</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.990817770026074</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8998911577954564</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.990817770026074</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4025913090.846395</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002943073188627088</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.152309840622372</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8355273884871527</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.152309840622372</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8093861286.322883</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00457835409321142</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>21</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.229698737007112</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5222329678670935</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.229698737007112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3846650320.668458</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003849818156784995</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.791711600831445</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8653069196673655</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.791711600831445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6424788792.20865</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004437142470579876</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>17</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.950333674524352</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9616359475503933</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.950333674524352</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6960085975.324947</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002899261794595301</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.772193516920169</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.880188852883644</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.772193516920169</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>4853001442.624991</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005402933212595107</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.028496763511399</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.855874146608996</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.028496763511399</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8811530343.526016</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002436102896458416</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.301235381757469</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6922884779094893</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.301235381757469</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4469272543.544119</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001220528708875045</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>11</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.3446356264810692</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.135889916118459</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.6597192434069417</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.135889916118459</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6523019845.107882</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003575118147298993</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.020263462993375</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8787102812553736</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.020263462993375</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3715363279.083075</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003921558447396207</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.78535878096163</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7712656970433341</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.78535878096163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6728142984.626197</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002522754647517101</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.496651832773053</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.003278007871353</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.496651832773053</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5674012422.215896</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001408781319709018</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.921797557505398</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9290036737925813</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.921797557505398</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5834926363.05899</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005088402047938373</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.672049654920094</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8486363805752414</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.672049654920094</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6179048207.923608</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002970005376605191</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
         <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.732451251711383</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.84326332180356</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.732451251711383</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7091875935.435319</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002089910914726234</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.588969998552725</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8900945209973693</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.588969998552725</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5424564674.476317</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.003872314434120682</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.102625793552618</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9545165619098489</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.102625793552618</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6473232487.338939</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.005126345133965307</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.686003774881913</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8915516045532719</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.686003774881913</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7158201675.965924</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001728696772242228</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>12</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.863572986303065</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.922691073203317</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.863572986303065</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7417726669.555367</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003071787965706782</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.671659904809728</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9209328400012017</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.671659904809728</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5576927947.57025</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003293730714294455</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.486239434435035</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9585886575160935</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.486239434435035</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7298526844.665831</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003632860991518147</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.453546433535623</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8436501170691146</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.453546433535623</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9052918348.433237</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003387474968828853</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.197602100498597</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7883412602585712</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.197602100498597</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6022841208.860801</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003923883259283333</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>18</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5124397562702953</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.407733215673462</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.8041393056365281</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.407733215673462</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3738773906.852528</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002864670972837538</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.208086858510177</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8547393539761877</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.208086858510177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5895329950.035405</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001907343096913402</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>17</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.763371464441585</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9473485844549266</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.763371464441585</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4173862850.987912</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001157553172795819</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.159891230084992</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9170480429200821</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.159891230084992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8458154874.050625</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005243389288925168</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.582735834081403</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8138727322314633</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.582735834081403</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6817861153.535478</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004838946498700663</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.045943731592724</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9300516083235832</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.045943731592724</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4630262215.882035</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003454926167288268</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>13</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.761699781913693</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9209303147947349</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.761699781913693</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5621966449.236188</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004280833438386634</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.807692519574099</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.7821343394028257</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.807692519574099</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4012038940.207606</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004142533131639761</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.014023005129974</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.019010778247941</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.014023005129974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>8172693437.363055</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00120429423995813</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.588314694370736</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8908233606869125</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.588314694370736</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7521229363.319833</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001400116516143498</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.885002952840679</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.9713768000839288</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.885002952840679</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5512144045.973036</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002331807138429855</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>12</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.8238289612255018</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.874424111713494</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.054796850492103</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.874424111713494</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6597344703.206226</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002042365170080729</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>22</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.270408670322199</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8675594379071039</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.270408670322199</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6171391334.712646</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005453568324505299</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9123221888452644</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.790467858659521</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.078983949209992</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.790467858659521</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7309379911.395698</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004485307642782827</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.8077177393326384</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.466034791035025</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.9722103130346135</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.466034791035025</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3662164682.94684</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004751107078298894</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.483109143260584</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8615486330116717</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.483109143260584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5487129359.100285</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002960704719591788</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.667703528751933</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7953088307715218</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.667703528751933</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8583100060.469072</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001550572243880515</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.622527435240871</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.855723918159707</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8596612993736229</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.855723918159707</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_77.xlsx
+++ b/output/fit_clients/fit_round_77.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8492239767.019067</v>
+        <v>2293955715.562281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003994062522212366</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19</v>
+        <v>0.1046552292889269</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03419194335341301</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1146977892.86633</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5329205293.43617</v>
+        <v>2565653470.010312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004060578894406582</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+        <v>0.1435086984394786</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03194404156977874</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1282826862.568799</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4302553680.588545</v>
+        <v>3761736155.309046</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00243162433231327</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
+        <v>0.1627403190729317</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02427817759723044</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1880868074.866709</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3229421113.86391</v>
+        <v>3898149653.338267</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004630898042961782</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.0944935251710034</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03244921469616056</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1949074836.99279</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5768478092.375055</v>
+        <v>2600762965.748546</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00294350025738757</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.1056717450579522</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04372911932083097</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1300381447.371798</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6881651325.214907</v>
+        <v>2923715744.450217</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009744515909397704</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.08353036332038641</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04234671451235028</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1461857844.362809</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6897097147.512623</v>
+        <v>2874119375.33142</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002520094015368242</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1593455342412392</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03221492693498341</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1437059732.211087</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4527895790.355078</v>
+        <v>1717627939.372866</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005405090695060332</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24</v>
+        <v>0.1827103241988275</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03245845319401209</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>858814035.3949592</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3538075793.339776</v>
+        <v>5276166224.574596</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003534761587292927</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1716719983263519</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03629258387206082</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2638083232.890547</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4505140947.605568</v>
+        <v>3609474633.031001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001452213774483217</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1488413872216917</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03822143836526398</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1804737301.878931</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6991235425.588735</v>
+        <v>2192643332.148667</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001407569080434293</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21</v>
+        <v>0.1444270933497121</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04240255656640687</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>27</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1096321610.060012</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5536251706.915125</v>
+        <v>4242796555.919668</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004116951721609895</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15</v>
+        <v>0.1015246360111166</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0300096599345276</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>26</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2121398320.466455</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7307137751.670316</v>
+        <v>3881540840.031711</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002214792242328123</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18</v>
+        <v>0.1348612419626432</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0315757033837693</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1940770390.526469</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6136294255.238195</v>
+        <v>1631288799.424011</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003891694255026686</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.07233352926881204</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0373121804126937</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>815644514.8868606</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7933312666.875738</v>
+        <v>2171291959.601506</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004987909814755722</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23</v>
+        <v>0.1118755940320807</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0475065311531166</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1085646039.894545</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5823421158.846192</v>
+        <v>3913742980.452237</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002709475537631528</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
+        <v>0.1189544494469414</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03859208998239796</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1956871528.990592</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6360906175.405532</v>
+        <v>3858460149.033546</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001038243063595956</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.1714944311565446</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0230607079661613</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>21</v>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1929230042.529267</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4564716169.764981</v>
+        <v>875999500.0869384</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00143693677505528</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.126264946145788</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02162261395786688</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>437999749.0602744</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4892185405.719893</v>
+        <v>2145323743.079122</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001227360791955123</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1547959763470119</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01930570206636253</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1072661882.317325</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6984691912.228503</v>
+        <v>2229735881.932722</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004731516801875878</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>14</v>
+        <v>0.06944476426690258</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03813267754210524</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1114867954.882737</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5064050495.405398</v>
+        <v>3608772047.559478</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004750301884446132</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1445121409202944</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05194571540495418</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1804386048.767617</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5781220680.91743</v>
+        <v>1496974558.136184</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001354032934984067</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>14</v>
+        <v>0.1235226887340815</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04075575199082689</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>748487265.4211886</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7308498793.852698</v>
+        <v>3595313263.370162</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003162239804882009</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+        <v>0.100234234259572</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02736083879482967</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1797656626.790402</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4950927542.504859</v>
+        <v>973070848.9530325</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003535639058140683</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>17</v>
+        <v>0.08582378706394923</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02114528366822966</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>486535494.5597726</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4427697090.483754</v>
+        <v>1077037079.350692</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001391642800318107</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09742768231255806</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03653196857891619</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>538518530.4855144</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5564034152.049599</v>
+        <v>4508570890.05295</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003863158383380324</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1269313923754515</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02649055037730802</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2254285429.839806</v>
       </c>
     </row>
     <row r="28">
@@ -1211,19 +1377,25 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6957977878.196782</v>
+        <v>3111862696.774914</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0056732278632428</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>19</v>
+        <v>0.1058168430252738</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03750886549265159</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1555931369.257217</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7022595548.67309</v>
+        <v>5846672517.279886</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001659149806482734</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20</v>
+        <v>0.1026835377308454</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04375742483606029</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>35</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2923336147.38506</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5562558859.566376</v>
+        <v>1878388454.443557</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003673827147214336</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.1119547542973451</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02928188225063095</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>939194250.7742705</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5629307613.839834</v>
+        <v>1338153934.378633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002372224466894712</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15</v>
+        <v>0.1120770672682408</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05081425678433335</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>669076886.0505413</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4210882627.937595</v>
+        <v>1695776801.72063</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001207907962112934</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07795879534586618</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02762694950080891</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>847888509.6694275</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6318352956.792201</v>
+        <v>2364707378.272022</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003164984224558939</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16</v>
+        <v>0.1709942223303296</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0572827780979817</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1182353738.777577</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>4927988294.458408</v>
+        <v>1537844573.687286</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003976641825488166</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>23</v>
+        <v>0.08401932254011749</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01777003664376139</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>768922236.4216686</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6995416683.733078</v>
+        <v>1356643273.687343</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002274411624358088</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>20</v>
+        <v>0.08341843114042272</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04147082740060517</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>678321577.1164182</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>8096506398.334361</v>
+        <v>2170453274.961584</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003476833805705837</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>22</v>
+        <v>0.1528065266531834</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02234605684525146</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1085226685.770498</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4209057396.464501</v>
+        <v>2317279056.476567</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004776124429849906</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20</v>
+        <v>0.1036981199525694</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03329360915703774</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1158639599.068999</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3639256705.632384</v>
+        <v>1583466006.409478</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004259205779215175</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1106767064203752</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02419926203288557</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>791733040.5808135</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5318496182.475699</v>
+        <v>1599273059.928222</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003041900585206044</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>12</v>
+        <v>0.1169308312424365</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02451314169074011</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>799636585.2411516</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6324992260.007114</v>
+        <v>1672164401.613089</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004113484950771878</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>23</v>
+        <v>0.1136379668530687</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05388075662138629</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>836082123.7796525</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4850748364.676351</v>
+        <v>2890962533.945671</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000975216466244039</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>22</v>
+        <v>0.139652988871227</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03763558185169458</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>19</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1445481253.870875</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5166659831.476551</v>
+        <v>4163545527.051781</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004471870495230556</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.11592123343757</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04421760795307212</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2081772803.9829</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6961217290.520144</v>
+        <v>2952761751.416401</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003502935721446366</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.1242263521398336</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02445075765920142</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>27</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1476380878.758366</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6028704221.73816</v>
+        <v>1588414240.104394</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001800923727905947</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>20</v>
+        <v>0.08550351974242806</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03505507377911406</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>794207144.1756884</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5757529579.04473</v>
+        <v>1919131860.421855</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001622567668370135</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1277450920865526</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03760603337009964</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>959565912.8363624</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>525</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4296248435.089181</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1426438873975897</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03799294564674362</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>406</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7690489761.066267</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.003778899024531083</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
+      <c r="I46" t="n">
+        <v>27</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2148124203.984169</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9827325771.824198</v>
+        <v>5068198976.95139</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003084169089384628</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1549353659764021</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05934866042680022</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2534099548.048138</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8041004052.309237</v>
+        <v>3800654710.304723</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002958304581881341</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>14</v>
+        <v>0.09608659344179603</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03055731711653906</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1900327400.997175</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3709319086.158831</v>
+        <v>1352776813.777444</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004949341467533863</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1934367036344326</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03552949347742125</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>676388461.7330585</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6335928586.189953</v>
+        <v>3518171404.137638</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003167172504936946</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>21</v>
+        <v>0.1567400005794402</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0390197166525536</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1759085724.935594</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4636301873.022833</v>
+        <v>1324646575.102505</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004693385672639034</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1682009341519332</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05383313098458319</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>662323318.8087103</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6875168800.123344</v>
+        <v>3832893126.745818</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00144678832365337</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>18</v>
+        <v>0.09065142133232924</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04193086632566833</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>32</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1916446629.599259</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4574155342.440718</v>
+        <v>2415689840.551824</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003092417290450447</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>14</v>
+        <v>0.1308626044235116</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03235704564325402</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>22</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1207844992.993818</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6110541119.451936</v>
+        <v>3735738253.046237</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005482153417604055</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>19</v>
+        <v>0.1191883853444334</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03855875550485776</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1867869169.765368</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7976579134.186535</v>
+        <v>3009057276.710579</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003019293908515086</v>
-      </c>
-      <c r="G55" t="b">
+        <v>0.1820155650697899</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02009244539445219</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
-        <v>24</v>
+      <c r="I55" t="n">
+        <v>20</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1504528569.414185</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>3990803996.196428</v>
+        <v>1464510845.777059</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002539007931251937</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1443442985865715</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04125036761461535</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>732255470.311334</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6190140104.138923</v>
+        <v>3829256909.112671</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004394556924438823</v>
-      </c>
-      <c r="G57" t="b">
+        <v>0.1497296288249196</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02065581045708326</v>
+      </c>
+      <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="H57" t="n">
-        <v>17</v>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1914628528.488072</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6268742691.938027</v>
+        <v>1605816436.396644</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001750391567924627</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>17</v>
+        <v>0.2022576778717017</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03832175145025531</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>802908239.5820985</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5187074236.565807</v>
+        <v>5136214847.599637</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003243028892191758</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1189360170496861</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04659165010930239</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>21</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2568107344.849892</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5788263569.138587</v>
+        <v>2916454645.484993</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002785063872758648</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1637060997048251</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02578904389077007</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1458227384.24126</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5911806221.134981</v>
+        <v>2971667239.810266</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005284271170086986</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1273504175744134</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02781250059941628</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>17</v>
+      <c r="I61" t="n">
+        <v>26</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1485833602.949219</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4025913090.846395</v>
+        <v>1309542263.545252</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002943073188627088</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1357767834516191</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04165536417509549</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>654771086.1582632</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8093861286.322883</v>
+        <v>5119344034.795111</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00457835409321142</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>19</v>
+        <v>0.07878815318529805</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04312598629266021</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2559672029.736033</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3846650320.668458</v>
+        <v>4699041196.716161</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003849818156784995</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1210753718672245</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02945700027689756</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>24</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2349520683.299608</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6424788792.20865</v>
+        <v>4761239380.799726</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004437142470579876</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>20</v>
+        <v>0.1245298688744297</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02322340144624288</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2380619663.463936</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6960085975.324947</v>
+        <v>5688827627.48029</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002899261794595301</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>17</v>
+        <v>0.1479661295213191</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.05116179395722647</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>22</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2844413877.706306</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>4853001442.624991</v>
+        <v>3385186160.448087</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005402933212595107</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.07748552657141917</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04423143186667176</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1692593065.767077</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8811530343.526016</v>
+        <v>5934601289.984812</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002436102896458416</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>16</v>
+        <v>0.1393142854530538</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04998412373828862</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2967300757.917206</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4469272543.544119</v>
+        <v>1731107605.549207</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001220528708875045</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1806074859197279</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05294631317796924</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>865553772.8752915</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6523019845.107882</v>
+        <v>3240209853.014996</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003575118147298993</v>
-      </c>
-      <c r="G70" t="b">
+        <v>0.09171129246809744</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03397195516709046</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>19</v>
+      <c r="I70" t="n">
+        <v>22</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1620104919.014442</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3715363279.083075</v>
+        <v>5359245205.578729</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003921558447396207</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1777891111327432</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02609455788514923</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>28</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2679622735.197325</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6728142984.626197</v>
+        <v>1950999385.962656</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002522754647517101</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>16</v>
+        <v>0.09393018698602745</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0413857717047846</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>975499647.1336765</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5674012422.215896</v>
+        <v>3097860351.588875</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001408781319709018</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.1087510964549924</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04829922002881714</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1548930162.725982</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5834926363.05899</v>
+        <v>3189122490.173143</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005088402047938373</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
+        <v>0.1204837500224864</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03479285748178759</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1594561294.057835</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6179048207.923608</v>
+        <v>1815778845.381719</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002970005376605191</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>15</v>
+        <v>0.1394801049110383</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0268171281471188</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>907889404.0239087</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7091875935.435319</v>
+        <v>3893856066.465876</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002089910914726234</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>16</v>
+        <v>0.1018515690130509</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0340269464641372</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>17</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1946928013.423344</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5424564674.476317</v>
+        <v>2048775996.192812</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003872314434120682</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1314103905966809</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02622282814585319</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1024388066.718847</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6473232487.338939</v>
+        <v>3400100606.414535</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005126345133965307</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.1304732306056283</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0481324121242084</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1700050311.803351</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7158201675.965924</v>
+        <v>1886282794.616629</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001728696772242228</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1215478349091659</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.035009191981922</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>943141498.9992186</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7417726669.555367</v>
+        <v>3920752779.110677</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003071787965706782</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.1002471351982183</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03619744067590868</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>16</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1960376384.997254</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5576927947.57025</v>
+        <v>3434081802.552135</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003293730714294455</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1070826136524148</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03259746823761204</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1717040843.38356</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7298526844.665831</v>
+        <v>5609418340.736492</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003632860991518147</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>13</v>
+        <v>0.2100702255265981</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02507487678721954</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2804709120.223682</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9052918348.433237</v>
+        <v>2149962616.419575</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003387474968828853</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1447672879565369</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0412054891042467</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1074981312.059253</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6022841208.860801</v>
+        <v>1714341414.680164</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003923883259283333</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21</v>
+        <v>0.08992394576155811</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0326981696862955</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>857170754.0811082</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3738773906.852528</v>
+        <v>2709764202.653515</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002864670972837538</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1204688568668569</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04371811358227187</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1354882129.356206</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5895329950.035405</v>
+        <v>2057443197.662567</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001907343096913402</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>20</v>
+        <v>0.1481778129715462</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02388024063040207</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1028721634.363202</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4173862850.987912</v>
+        <v>1269355666.911388</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001157553172795819</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1534295092357391</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03456247780847011</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>634677906.7335442</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8458154874.050625</v>
+        <v>2744442373.516235</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005243389288925168</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.166472930411957</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02489571309922969</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1372221191.868526</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6817861153.535478</v>
+        <v>2981258689.620978</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004838946498700663</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>16</v>
+        <v>0.1130425520377973</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03237831820446087</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1490629384.200142</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4630262215.882035</v>
+        <v>2136522460.046163</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003454926167288268</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>14</v>
+        <v>0.1132863565878049</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04053754109627986</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1068261325.146821</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5621966449.236188</v>
+        <v>1531946716.684934</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004280833438386634</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>23</v>
+        <v>0.1835454915537476</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04614490491258086</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>765973392.908087</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4012038940.207606</v>
+        <v>2798612830.789507</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004142533131639761</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09736837537746419</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04622425562227029</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1399306421.803461</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>8172693437.363055</v>
+        <v>4888395255.655113</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00120429423995813</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>25</v>
+        <v>0.1238945299333864</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04620432494162164</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2444197570.938615</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7521229363.319833</v>
+        <v>1578359872.636291</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001400116516143498</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>24</v>
+        <v>0.1590357549120967</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03165632591424661</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>789179879.7344348</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5512144045.973036</v>
+        <v>3212760875.166139</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002331807138429855</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>19</v>
+        <v>0.1014145329596675</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03732076724668037</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1606380421.73744</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6597344703.206226</v>
+        <v>1557887432.890104</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002042365170080729</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>20</v>
+        <v>0.09282662609106777</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04406251895856787</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>778943750.5331156</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6171391334.712646</v>
+        <v>4170754032.935615</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005453568324505299</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>20</v>
+        <v>0.1496667776662262</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0250797060146738</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2085377086.48694</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>453</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3032548823.880428</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1198121142286174</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02363877892486981</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
-        <v>616</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7309379911.395698</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.004485307642782827</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>29</v>
+      <c r="I98" t="n">
+        <v>20</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1516274398.757126</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3662164682.94684</v>
+        <v>2410309076.111517</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004751107078298894</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1427218670227102</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02324181972111038</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1205154481.163017</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
+        <v>4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>486</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4698762344.434733</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.121012476224777</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02382858738704925</v>
+      </c>
+      <c r="H100" t="b">
         <v>1</v>
       </c>
-      <c r="D100" t="n">
-        <v>422</v>
-      </c>
-      <c r="E100" t="n">
-        <v>5487129359.100285</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.002960704719591788</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+      <c r="I100" t="n">
+        <v>23</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2349381298.571383</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8583100060.469072</v>
+        <v>3142874069.459427</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001550572243880515</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.2004763063978839</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05554777798237232</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>24</v>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1571437142.573312</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_77.xlsx
+++ b/output/fit_clients/fit_round_77.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2293955715.562281</v>
+        <v>2389943686.376239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1046552292889269</v>
+        <v>0.09129251593554205</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03419194335341301</v>
+        <v>0.02888055295224371</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1146977892.86633</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2565653470.010312</v>
+        <v>2413057704.735426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1435086984394786</v>
+        <v>0.1703811405846026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03194404156977874</v>
+        <v>0.04523687984823353</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1282826862.568799</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3761736155.309046</v>
+        <v>3289678609.813517</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1627403190729317</v>
+        <v>0.1448786787987205</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02427817759723044</v>
+        <v>0.03789632747723284</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1880868074.866709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3898149653.338267</v>
+        <v>3080476091.940996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0944935251710034</v>
+        <v>0.08850662029041999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03244921469616056</v>
+        <v>0.04014862587047304</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1949074836.99279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2600762965.748546</v>
+        <v>2538899249.136235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1056717450579522</v>
+        <v>0.09971447633113861</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04372911932083097</v>
+        <v>0.04827126795691888</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1300381447.371798</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2923715744.450217</v>
+        <v>2175607377.111601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08353036332038641</v>
+        <v>0.09248906990610291</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04234671451235028</v>
+        <v>0.04540005754828244</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1461857844.362809</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2874119375.33142</v>
+        <v>3420395433.049061</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1593455342412392</v>
+        <v>0.2124304474556546</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03221492693498341</v>
+        <v>0.02619536506846482</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>24</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1437059732.211087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1717627939.372866</v>
+        <v>2287817372.207675</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1827103241988275</v>
+        <v>0.1787677156168491</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03245845319401209</v>
+        <v>0.02893504823465465</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>858814035.3949592</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5276166224.574596</v>
+        <v>5705386075.671843</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1716719983263519</v>
+        <v>0.2140226389575138</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03629258387206082</v>
+        <v>0.04249036484636479</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2638083232.890547</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3609474633.031001</v>
+        <v>3332691811.152963</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1488413872216917</v>
+        <v>0.1529392934173587</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03822143836526398</v>
+        <v>0.0345677173182503</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>32</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1804737301.878931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2192643332.148667</v>
+        <v>2528195655.694592</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1444270933497121</v>
+        <v>0.1561982619934638</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04240255656640687</v>
+        <v>0.03684919218025047</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>27</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1096321610.060012</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4242796555.919668</v>
+        <v>3324656206.669234</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1015246360111166</v>
+        <v>0.09716157978397373</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0300096599345276</v>
+        <v>0.03021678354009168</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2121398320.466455</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3881540840.031711</v>
+        <v>3366428169.392106</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1348612419626432</v>
+        <v>0.1212063068338012</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0315757033837693</v>
+        <v>0.03352188571380532</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1940770390.526469</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1631288799.424011</v>
+        <v>1595782825.239105</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07233352926881204</v>
+        <v>0.07522822701892748</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0373121804126937</v>
+        <v>0.03381694422853621</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>815644514.8868606</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2171291959.601506</v>
+        <v>2511299154.759122</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1118755940320807</v>
+        <v>0.09137796449433221</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0475065311531166</v>
+        <v>0.04869242227685926</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1085646039.894545</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3913742980.452237</v>
+        <v>3633129263.105699</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1189544494469414</v>
+        <v>0.1081174706857472</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03859208998239796</v>
+        <v>0.04644102985646271</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1956871528.990592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3858460149.033546</v>
+        <v>2954733003.337755</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1714944311565446</v>
+        <v>0.1145103267697161</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0230607079661613</v>
+        <v>0.02418173976121535</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>25</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1929230042.529267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>875999500.0869384</v>
+        <v>989905661.5330558</v>
       </c>
       <c r="F19" t="n">
-        <v>0.126264946145788</v>
+        <v>0.1810736604874811</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02162261395786688</v>
+        <v>0.02563491640502771</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>437999749.0602744</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2145323743.079122</v>
+        <v>2592143678.612902</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1547959763470119</v>
+        <v>0.1550979405519226</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01930570206636253</v>
+        <v>0.02195647863317791</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1072661882.317325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2229735881.932722</v>
+        <v>2343808028.123377</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06944476426690258</v>
+        <v>0.102011665115339</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03813267754210524</v>
+        <v>0.03078559158036579</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1114867954.882737</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3608772047.559478</v>
+        <v>3498411771.519677</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1445121409202944</v>
+        <v>0.0971355169231078</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05194571540495418</v>
+        <v>0.03771478549415414</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1804386048.767617</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1496974558.136184</v>
+        <v>1431452021.248914</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1235226887340815</v>
+        <v>0.1234789214903225</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04075575199082689</v>
+        <v>0.03640828654011093</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>748487265.4211886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3595313263.370162</v>
+        <v>3068881667.938053</v>
       </c>
       <c r="F24" t="n">
-        <v>0.100234234259572</v>
+        <v>0.09086604113019051</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02736083879482967</v>
+        <v>0.02941703568010796</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>22</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1797656626.790402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>973070848.9530325</v>
+        <v>934695142.5561253</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08582378706394923</v>
+        <v>0.09905859164729532</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02114528366822966</v>
+        <v>0.02261355020761145</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>486535494.5597726</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1077037079.350692</v>
+        <v>1448205942.19299</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09742768231255806</v>
+        <v>0.08285622656785688</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03653196857891619</v>
+        <v>0.03609418146263857</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>538518530.4855144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4508570890.05295</v>
+        <v>4031786500.56566</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1269313923754515</v>
+        <v>0.155829409049762</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02649055037730802</v>
+        <v>0.02670860522723929</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2254285429.839806</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3111862696.774914</v>
+        <v>2399751955.822831</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1058168430252738</v>
+        <v>0.0948181489395762</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03750886549265159</v>
+        <v>0.04026174304289967</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1555931369.257217</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5846672517.279886</v>
+        <v>5818341297.006211</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1026835377308454</v>
+        <v>0.1264329317818954</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04375742483606029</v>
+        <v>0.04282235368010244</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>35</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2923336147.38506</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1878388454.443557</v>
+        <v>1486766338.169604</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1119547542973451</v>
+        <v>0.1329944151661243</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02928188225063095</v>
+        <v>0.03722767945551783</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>939194250.7742705</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1338153934.378633</v>
+        <v>907423275.4477756</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1120770672682408</v>
+        <v>0.06785689329852727</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05081425678433335</v>
+        <v>0.04960124889270361</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>669076886.0505413</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1695776801.72063</v>
+        <v>1608496848.891077</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07795879534586618</v>
+        <v>0.08837694880498309</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02762694950080891</v>
+        <v>0.03826890634037466</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>847888509.6694275</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2364707378.272022</v>
+        <v>2566586120.751251</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1709942223303296</v>
+        <v>0.1999961516063368</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0572827780979817</v>
+        <v>0.05859835009474024</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>22</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1182353738.777577</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1537844573.687286</v>
+        <v>1309456750.453759</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08401932254011749</v>
+        <v>0.08918884125998314</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01777003664376139</v>
+        <v>0.02381023204193311</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>768922236.4216686</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1356643273.687343</v>
+        <v>1317824006.582947</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08341843114042272</v>
+        <v>0.1065787118025197</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04147082740060517</v>
+        <v>0.04161349355011026</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>678321577.1164182</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2170453274.961584</v>
+        <v>2008954336.361949</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1528065266531834</v>
+        <v>0.1587752254115213</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02234605684525146</v>
+        <v>0.02022838189264215</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1085226685.770498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2317279056.476567</v>
+        <v>2393421599.425414</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1036981199525694</v>
+        <v>0.08849068279994182</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03329360915703774</v>
+        <v>0.04254531033939472</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1158639599.068999</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1583466006.409478</v>
+        <v>1344693270.893968</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1106767064203752</v>
+        <v>0.08803257432258615</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02419926203288557</v>
+        <v>0.03414169345724744</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>791733040.5808135</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1599273059.928222</v>
+        <v>1361821541.400615</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1169308312424365</v>
+        <v>0.1626620935615734</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02451314169074011</v>
+        <v>0.0210579737866952</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>799636585.2411516</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1672164401.613089</v>
+        <v>1722034999.033991</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1136379668530687</v>
+        <v>0.1195002148996757</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05388075662138629</v>
+        <v>0.04809006738349136</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>836082123.7796525</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2890962533.945671</v>
+        <v>2708564558.656292</v>
       </c>
       <c r="F41" t="n">
-        <v>0.139652988871227</v>
+        <v>0.152650489944296</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03763558185169458</v>
+        <v>0.03179564297792388</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>19</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1445481253.870875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4163545527.051781</v>
+        <v>3117691075.910833</v>
       </c>
       <c r="F42" t="n">
-        <v>0.11592123343757</v>
+        <v>0.1173730493322538</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04421760795307212</v>
+        <v>0.04294988299533545</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2081772803.9829</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2952761751.416401</v>
+        <v>2707660207.073769</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1242263521398336</v>
+        <v>0.1479825637577908</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02445075765920142</v>
+        <v>0.01787449076320236</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>27</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1476380878.758366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1588414240.104394</v>
+        <v>1604670611.864261</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08550351974242806</v>
+        <v>0.07751743913146779</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03505507377911406</v>
+        <v>0.02444943919716355</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>794207144.1756884</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1919131860.421855</v>
+        <v>2376203400.42354</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1277450920865526</v>
+        <v>0.156715101656229</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03760603337009964</v>
+        <v>0.04014327909223615</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>959565912.8363624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4296248435.089181</v>
+        <v>3934500560.48263</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1426438873975897</v>
+        <v>0.1586013045132454</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03799294564674362</v>
+        <v>0.04125553296286478</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>27</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2148124203.984169</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5068198976.95139</v>
+        <v>4738979787.584383</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1549353659764021</v>
+        <v>0.1345527163403081</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05934866042680022</v>
+        <v>0.04146454964885056</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2534099548.048138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3800654710.304723</v>
+        <v>3887627078.996009</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09608659344179603</v>
+        <v>0.09549610361072831</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03055731711653906</v>
+        <v>0.02755724884647616</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1900327400.997175</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1352776813.777444</v>
+        <v>1664021024.100878</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1934367036344326</v>
+        <v>0.126161897486521</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03552949347742125</v>
+        <v>0.04142246322502593</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>676388461.7330585</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3518171404.137638</v>
+        <v>3683371657.302288</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1567400005794402</v>
+        <v>0.1217969013046932</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0390197166525536</v>
+        <v>0.04772282630897358</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>26</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1759085724.935594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1324646575.102505</v>
+        <v>1205830322.276613</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1682009341519332</v>
+        <v>0.1769563894929371</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05383313098458319</v>
+        <v>0.05232349365127301</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>662323318.8087103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3832893126.745818</v>
+        <v>3843777865.767137</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09065142133232924</v>
+        <v>0.1117145237907596</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04193086632566833</v>
+        <v>0.04737924707475446</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>32</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1916446629.599259</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2415689840.551824</v>
+        <v>2741566584.007863</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1308626044235116</v>
+        <v>0.1605520385270472</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03235704564325402</v>
+        <v>0.02784583914438304</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>22</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1207844992.993818</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3735738253.046237</v>
+        <v>4234329426.965086</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1191883853444334</v>
+        <v>0.1250068931006438</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03855875550485776</v>
+        <v>0.03830645970760212</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>26</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1867869169.765368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3009057276.710579</v>
+        <v>3579889883.448538</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1820155650697899</v>
+        <v>0.2065761394446807</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02009244539445219</v>
+        <v>0.02941119940126981</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1504528569.414185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1464510845.777059</v>
+        <v>1244440502.061781</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1443442985865715</v>
+        <v>0.1191666399164989</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04125036761461535</v>
+        <v>0.05630764250913572</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>732255470.311334</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3829256909.112671</v>
+        <v>4423314673.424767</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1497296288249196</v>
+        <v>0.1586374127221393</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02065581045708326</v>
+        <v>0.01835481450948905</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>24</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1914628528.488072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1605816436.396644</v>
+        <v>1590431907.514231</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2022576778717017</v>
+        <v>0.1738309786948776</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03832175145025531</v>
+        <v>0.02736219453021757</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>802908239.5820985</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5136214847.599637</v>
+        <v>4184023658.460508</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1189360170496861</v>
+        <v>0.1040211722517536</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04659165010930239</v>
+        <v>0.03289795759026513</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>21</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2568107344.849892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2916454645.484993</v>
+        <v>3290117369.331432</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1637060997048251</v>
+        <v>0.1263541415737418</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02578904389077007</v>
+        <v>0.02109742567935333</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1458227384.24126</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2971667239.810266</v>
+        <v>3407560806.88495</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1273504175744134</v>
+        <v>0.1426772267654182</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02781250059941628</v>
+        <v>0.02819685538152228</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1485833602.949219</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1309542263.545252</v>
+        <v>1587325898.332178</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1357767834516191</v>
+        <v>0.1888226012118541</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04165536417509549</v>
+        <v>0.04480915238487504</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>654771086.1582632</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5119344034.795111</v>
+        <v>4447282781.644243</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07878815318529805</v>
+        <v>0.07110745571486789</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04312598629266021</v>
+        <v>0.0371858588237387</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>22</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2559672029.736033</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4699041196.716161</v>
+        <v>4180214542.888282</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1210753718672245</v>
+        <v>0.1198807820694494</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02945700027689756</v>
+        <v>0.03337133731332202</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>24</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2349520683.299608</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4761239380.799726</v>
+        <v>3857789634.548893</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1245298688744297</v>
+        <v>0.112119480757427</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02322340144624288</v>
+        <v>0.03127861776921866</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>28</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2380619663.463936</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5688827627.48029</v>
+        <v>4911781882.128102</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1479661295213191</v>
+        <v>0.120220640239033</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05116179395722647</v>
+        <v>0.03459119832252954</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>22</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2844413877.706306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3385186160.448087</v>
+        <v>3361935754.283662</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07748552657141917</v>
+        <v>0.08147666680738704</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04423143186667176</v>
+        <v>0.05058799146676402</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1692593065.767077</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5934601289.984812</v>
+        <v>4202922671.994993</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1393142854530538</v>
+        <v>0.1297456016430891</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04998412373828862</v>
+        <v>0.03949198076759879</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>24</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2967300757.917206</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1731107605.549207</v>
+        <v>1669036538.298532</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1806074859197279</v>
+        <v>0.1730551558171265</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05294631317796924</v>
+        <v>0.03926515591404857</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>865553772.8752915</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3240209853.014996</v>
+        <v>2631271110.381937</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09171129246809744</v>
+        <v>0.08794441097677479</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03397195516709046</v>
+        <v>0.04880519179455946</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>22</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1620104919.014442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5359245205.578729</v>
+        <v>3433789145.227537</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1777891111327432</v>
+        <v>0.1327113645507127</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02609455788514923</v>
+        <v>0.02768061594843791</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>28</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2679622735.197325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1950999385.962656</v>
+        <v>1631935041.89601</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09393018698602745</v>
+        <v>0.08867815642301767</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0413857717047846</v>
+        <v>0.05187618610501616</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>975499647.1336765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3097860351.588875</v>
+        <v>3470662041.937257</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1087510964549924</v>
+        <v>0.09485607094192444</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04829922002881714</v>
+        <v>0.0362571986171492</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>29</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1548930162.725982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3189122490.173143</v>
+        <v>2641595889.579688</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1204837500224864</v>
+        <v>0.1369095006628829</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03479285748178759</v>
+        <v>0.03118929271732309</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>27</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1594561294.057835</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1815778845.381719</v>
+        <v>2109268107.695903</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1394801049110383</v>
+        <v>0.1210429265369328</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0268171281471188</v>
+        <v>0.02349128914432061</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>907889404.0239087</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3893856066.465876</v>
+        <v>3346094351.766185</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1018515690130509</v>
+        <v>0.1243694875596694</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0340269464641372</v>
+        <v>0.02965604902031997</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1946928013.423344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2048775996.192812</v>
+        <v>2240909394.532989</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1314103905966809</v>
+        <v>0.1508732939369242</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02622282814585319</v>
+        <v>0.0198993418210143</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1024388066.718847</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3400100606.414535</v>
+        <v>3748898221.108396</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1304732306056283</v>
+        <v>0.117089085682772</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0481324121242084</v>
+        <v>0.04957151351924369</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>27</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1700050311.803351</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1886282794.616629</v>
+        <v>1809622917.676413</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1215478349091659</v>
+        <v>0.1124501233379095</v>
       </c>
       <c r="G79" t="n">
-        <v>0.035009191981922</v>
+        <v>0.03504006392775399</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>943141498.9992186</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3920752779.110677</v>
+        <v>5114015567.37053</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1002471351982183</v>
+        <v>0.0739683838591554</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03619744067590868</v>
+        <v>0.03293373522306786</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1960376384.997254</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3434081802.552135</v>
+        <v>4786154741.159114</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1070826136524148</v>
+        <v>0.08443221551768992</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03259746823761204</v>
+        <v>0.02579376432578762</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>17</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1717040843.38356</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5609418340.736492</v>
+        <v>4928149243.669574</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2100702255265981</v>
+        <v>0.202231962281871</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02507487678721954</v>
+        <v>0.02034232695970789</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>27</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2804709120.223682</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2149962616.419575</v>
+        <v>1756670103.286613</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1447672879565369</v>
+        <v>0.1203267891698194</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0412054891042467</v>
+        <v>0.03078926266870254</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1074981312.059253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1714341414.680164</v>
+        <v>2210506133.681341</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08992394576155811</v>
+        <v>0.07429091695776567</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0326981696862955</v>
+        <v>0.05091928131805952</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>857170754.0811082</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2709764202.653515</v>
+        <v>2658420925.117229</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1204688568668569</v>
+        <v>0.1700628508359358</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04371811358227187</v>
+        <v>0.05519229766240812</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>30</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1354882129.356206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2057443197.662567</v>
+        <v>1968481990.036193</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1481778129715462</v>
+        <v>0.1372571537731442</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02388024063040207</v>
+        <v>0.02559296674716671</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1028721634.363202</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1269355666.911388</v>
+        <v>1017171901.463529</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1534295092357391</v>
+        <v>0.1661189315964632</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03456247780847011</v>
+        <v>0.03964711491364659</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>634677906.7335442</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2744442373.516235</v>
+        <v>3089326470.825862</v>
       </c>
       <c r="F88" t="n">
-        <v>0.166472930411957</v>
+        <v>0.1536181551946538</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02489571309922969</v>
+        <v>0.03723178032911989</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>29</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1372221191.868526</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2981258689.620978</v>
+        <v>2691879033.101566</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1130425520377973</v>
+        <v>0.1029843257786181</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03237831820446087</v>
+        <v>0.02597998958536483</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>26</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1490629384.200142</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2136522460.046163</v>
+        <v>1564683495.829873</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1132863565878049</v>
+        <v>0.1121655759704451</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04053754109627986</v>
+        <v>0.03574719092530819</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1068261325.146821</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1531946716.684934</v>
+        <v>1330830899.475911</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1835454915537476</v>
+        <v>0.1768694714498808</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04614490491258086</v>
+        <v>0.04468214812263476</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>765973392.908087</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2798612830.789507</v>
+        <v>2100299869.348113</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09736837537746419</v>
+        <v>0.07188187171227482</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04622425562227029</v>
+        <v>0.03422167819928044</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1399306421.803461</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4888395255.655113</v>
+        <v>4145160770.24433</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1238945299333864</v>
+        <v>0.1238665270952509</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04620432494162164</v>
+        <v>0.0444096946133279</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>23</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2444197570.938615</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1578359872.636291</v>
+        <v>2337844534.346441</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1590357549120967</v>
+        <v>0.1306201005252339</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03165632591424661</v>
+        <v>0.03591700631072734</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>789179879.7344348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3212760875.166139</v>
+        <v>3228229041.519288</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1014145329596675</v>
+        <v>0.1083944142289658</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03732076724668037</v>
+        <v>0.0341009248254067</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>17</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1606380421.73744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1557887432.890104</v>
+        <v>1566698430.139648</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09282662609106777</v>
+        <v>0.1244192963356066</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04406251895856787</v>
+        <v>0.04565599869747514</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>778943750.5331156</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4170754032.935615</v>
+        <v>3995073822.721688</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1496667776662262</v>
+        <v>0.1400947161910624</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0250797060146738</v>
+        <v>0.01963093692246978</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>25</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2085377086.48694</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3032548823.880428</v>
+        <v>3017906332.456286</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1198121142286174</v>
+        <v>0.09734581430094746</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02363877892486981</v>
+        <v>0.03060579956506188</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>20</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1516274398.757126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2410309076.111517</v>
+        <v>3199196723.035872</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1427218670227102</v>
+        <v>0.08971905224365259</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02324181972111038</v>
+        <v>0.02893722492216445</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1205154481.163017</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4698762344.434733</v>
+        <v>2992697187.394426</v>
       </c>
       <c r="F100" t="n">
-        <v>0.121012476224777</v>
+        <v>0.1424865004970438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02382858738704925</v>
+        <v>0.01879463704011565</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>23</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2349381298.571383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3142874069.459427</v>
+        <v>3123296070.329469</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2004763063978839</v>
+        <v>0.1783800384781564</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05554777798237232</v>
+        <v>0.05460830856386795</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>33</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1571437142.573312</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_77.xlsx
+++ b/output/fit_clients/fit_round_77.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2389943686.376239</v>
+        <v>2172378694.42174</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09129251593554205</v>
+        <v>0.07340773521437907</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02888055295224371</v>
+        <v>0.03569896393409793</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2413057704.735426</v>
+        <v>1910694055.787547</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703811405846026</v>
+        <v>0.1349434317898327</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04523687984823353</v>
+        <v>0.04243931592132551</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3289678609.813517</v>
+        <v>3699109390.497408</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1448786787987205</v>
+        <v>0.1057304932319026</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03789632747723284</v>
+        <v>0.02715140359825754</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3080476091.940996</v>
+        <v>3254412439.35578</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08850662029041999</v>
+        <v>0.06821966230579893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04014862587047304</v>
+        <v>0.03549493195384974</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2538899249.136235</v>
+        <v>2503311401.139213</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09971447633113861</v>
+        <v>0.1051275733471878</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04827126795691888</v>
+        <v>0.05537580239399021</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2175607377.111601</v>
+        <v>2078206182.618017</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09248906990610291</v>
+        <v>0.09874207434849668</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04540005754828244</v>
+        <v>0.04380373164752308</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3420395433.049061</v>
+        <v>3902251549.02599</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2124304474556546</v>
+        <v>0.2111377030813918</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02619536506846482</v>
+        <v>0.0308723241501901</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2287817372.207675</v>
+        <v>1989360454.320519</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1787677156168491</v>
+        <v>0.1824540284844053</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02893504823465465</v>
+        <v>0.03220884936418486</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5705386075.671843</v>
+        <v>5859977916.498587</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2140226389575138</v>
+        <v>0.1578095627020184</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04249036484636479</v>
+        <v>0.03818429232188756</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3332691811.152963</v>
+        <v>4262392667.644523</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1529392934173587</v>
+        <v>0.1325131001031305</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0345677173182503</v>
+        <v>0.03443440410075634</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2528195655.694592</v>
+        <v>2070578103.4521</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1561982619934638</v>
+        <v>0.1876304399609079</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03684919218025047</v>
+        <v>0.04739286784959725</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3324656206.669234</v>
+        <v>4621438575.666455</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09716157978397373</v>
+        <v>0.06482021050497648</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03021678354009168</v>
+        <v>0.02007303427089276</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3366428169.392106</v>
+        <v>3310630218.705963</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1212063068338012</v>
+        <v>0.1454252872439555</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03352188571380532</v>
+        <v>0.02964166258102556</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1595782825.239105</v>
+        <v>1338365360.65873</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07522822701892748</v>
+        <v>0.09055557024445782</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03381694422853621</v>
+        <v>0.04287007066878618</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2511299154.759122</v>
+        <v>2178472076.695341</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09137796449433221</v>
+        <v>0.09552040605033865</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04869242227685926</v>
+        <v>0.03959665515228993</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3633129263.105699</v>
+        <v>5270272787.113404</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1081174706857472</v>
+        <v>0.1330399257353593</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04644102985646271</v>
+        <v>0.05212933869694499</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2954733003.337755</v>
+        <v>3400506434.909366</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1145103267697161</v>
+        <v>0.163004570653533</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02418173976121535</v>
+        <v>0.02745948027646027</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>989905661.5330558</v>
+        <v>874735274.6403544</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1810736604874811</v>
+        <v>0.1439802144441592</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02563491640502771</v>
+        <v>0.02068726405208504</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2592143678.612902</v>
+        <v>2295665649.802541</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1550979405519226</v>
+        <v>0.1214959828266201</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02195647863317791</v>
+        <v>0.02297600522163414</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2343808028.123377</v>
+        <v>1995994502.903975</v>
       </c>
       <c r="F21" t="n">
-        <v>0.102011665115339</v>
+        <v>0.0983431835935387</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03078559158036579</v>
+        <v>0.03394983233976213</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3498411771.519677</v>
+        <v>3876215775.08795</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0971355169231078</v>
+        <v>0.1052895472589172</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03771478549415414</v>
+        <v>0.04064695121148282</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1431452021.248914</v>
+        <v>1306621997.35305</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1234789214903225</v>
+        <v>0.1855944057676048</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03640828654011093</v>
+        <v>0.03914398822366556</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3068881667.938053</v>
+        <v>2604596866.752661</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09086604113019051</v>
+        <v>0.09353350260454135</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02941703568010796</v>
+        <v>0.03566207845549198</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>934695142.5561253</v>
+        <v>949659805.7848344</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09905859164729532</v>
+        <v>0.1070141511822329</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02261355020761145</v>
+        <v>0.02777363430718997</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1448205942.19299</v>
+        <v>1316804625.938107</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08285622656785688</v>
+        <v>0.09777767307083868</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03609418146263857</v>
+        <v>0.03903191506038512</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4031786500.56566</v>
+        <v>3622015518.819203</v>
       </c>
       <c r="F27" t="n">
-        <v>0.155829409049762</v>
+        <v>0.1004363961879442</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02670860522723929</v>
+        <v>0.01730083006614082</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2399751955.822831</v>
+        <v>3095691732.43023</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0948181489395762</v>
+        <v>0.1220945808832813</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04026174304289967</v>
+        <v>0.04563948152375243</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5818341297.006211</v>
+        <v>5874467035.02588</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1264329317818954</v>
+        <v>0.1266395607578092</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04282235368010244</v>
+        <v>0.0317260198022483</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1486766338.169604</v>
+        <v>2239413562.615964</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1329944151661243</v>
+        <v>0.1366552528795957</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03722767945551783</v>
+        <v>0.03304951414006196</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>907423275.4477756</v>
+        <v>1501034785.258319</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06785689329852727</v>
+        <v>0.111056689507941</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04960124889270361</v>
+        <v>0.05130327921277541</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1608496848.891077</v>
+        <v>1753264047.820522</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08837694880498309</v>
+        <v>0.09355229282344447</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03826890634037466</v>
+        <v>0.03060375019697568</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2566586120.751251</v>
+        <v>2007778380.600815</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1999961516063368</v>
+        <v>0.1908000754958293</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05859835009474024</v>
+        <v>0.05990512756537298</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1309456750.453759</v>
+        <v>1412539186.99284</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08918884125998314</v>
+        <v>0.09199362226806923</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02381023204193311</v>
+        <v>0.01801022116579203</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1317824006.582947</v>
+        <v>865891780.347625</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1065787118025197</v>
+        <v>0.08485679801741505</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04161349355011026</v>
+        <v>0.0417079756046148</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2008954336.361949</v>
+        <v>2739032842.11167</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1587752254115213</v>
+        <v>0.1240051642762047</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02022838189264215</v>
+        <v>0.02355229776495218</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2393421599.425414</v>
+        <v>2605783591.910505</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08849068279994182</v>
+        <v>0.09890938883242816</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04254531033939472</v>
+        <v>0.0348660407326359</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1344693270.893968</v>
+        <v>1554099454.720932</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08803257432258615</v>
+        <v>0.08719780380476537</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03414169345724744</v>
+        <v>0.03048477255754834</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1361821541.400615</v>
+        <v>1393077077.878001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1626620935615734</v>
+        <v>0.1311793729756186</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0210579737866952</v>
+        <v>0.02753292487759859</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1722034999.033991</v>
+        <v>1387749796.436775</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1195002148996757</v>
+        <v>0.1126578211469497</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04809006738349136</v>
+        <v>0.05837059038803393</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2708564558.656292</v>
+        <v>2177905587.991692</v>
       </c>
       <c r="F41" t="n">
-        <v>0.152650489944296</v>
+        <v>0.1069786793692814</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03179564297792388</v>
+        <v>0.03592879068514122</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3117691075.910833</v>
+        <v>3693585693.984979</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1173730493322538</v>
+        <v>0.1042515468020585</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04294988299533545</v>
+        <v>0.04353108239497498</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2707660207.073769</v>
+        <v>3015106507.647817</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1479825637577908</v>
+        <v>0.1921748272158371</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01787449076320236</v>
+        <v>0.01678656833575809</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1604670611.864261</v>
+        <v>2087979950.81063</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07751743913146779</v>
+        <v>0.07087285202577487</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02444943919716355</v>
+        <v>0.0360191048377283</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2376203400.42354</v>
+        <v>2304226346.774693</v>
       </c>
       <c r="F45" t="n">
-        <v>0.156715101656229</v>
+        <v>0.1574069418743682</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04014327909223615</v>
+        <v>0.03850272109189701</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3934500560.48263</v>
+        <v>5036010054.984452</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1586013045132454</v>
+        <v>0.1739085606072311</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04125553296286478</v>
+        <v>0.04806343752977775</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4738979787.584383</v>
+        <v>3138235553.199879</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1345527163403081</v>
+        <v>0.1246603952057346</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04146454964885056</v>
+        <v>0.05566120945491712</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3887627078.996009</v>
+        <v>3027708910.737885</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09549610361072831</v>
+        <v>0.1103219242635259</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02755724884647616</v>
+        <v>0.03570824061737032</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1664021024.100878</v>
+        <v>1680029789.590084</v>
       </c>
       <c r="F49" t="n">
-        <v>0.126161897486521</v>
+        <v>0.1373918724198587</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04142246322502593</v>
+        <v>0.0377382637400614</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3683371657.302288</v>
+        <v>3413734474.088573</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1217969013046932</v>
+        <v>0.1144924491235886</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04772282630897358</v>
+        <v>0.04628199210985493</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1205830322.276613</v>
+        <v>1488327251.36962</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1769563894929371</v>
+        <v>0.1534302829081835</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05232349365127301</v>
+        <v>0.03399032109852135</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3843777865.767137</v>
+        <v>3460929973.202505</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1117145237907596</v>
+        <v>0.1291840870572197</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04737924707475446</v>
+        <v>0.06159267998643075</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2741566584.007863</v>
+        <v>2353278262.916194</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1605520385270472</v>
+        <v>0.1263491282992514</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02784583914438304</v>
+        <v>0.02374287750849472</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4234329426.965086</v>
+        <v>3316318384.222873</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1250068931006438</v>
+        <v>0.1119237842235714</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03830645970760212</v>
+        <v>0.03684067467362393</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3579889883.448538</v>
+        <v>4587688729.431785</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2065761394446807</v>
+        <v>0.155576262822532</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02941119940126981</v>
+        <v>0.02350901234555599</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1244440502.061781</v>
+        <v>1697952692.469388</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1191666399164989</v>
+        <v>0.1234255763917907</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05630764250913572</v>
+        <v>0.04020438106734468</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4423314673.424767</v>
+        <v>3689853068.334711</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1586374127221393</v>
+        <v>0.1715043102624729</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01835481450948905</v>
+        <v>0.02488223256630398</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1590431907.514231</v>
+        <v>1903886218.092393</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1738309786948776</v>
+        <v>0.187715578483298</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02736219453021757</v>
+        <v>0.03032481172099243</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4184023658.460508</v>
+        <v>3831920040.498389</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1040211722517536</v>
+        <v>0.09858677802356086</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03289795759026513</v>
+        <v>0.0437825876395573</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3290117369.331432</v>
+        <v>3375857992.52216</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1263541415737418</v>
+        <v>0.19616617464659</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02109742567935333</v>
+        <v>0.02178533373368703</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3407560806.88495</v>
+        <v>3083968392.78769</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1426772267654182</v>
+        <v>0.1579766811949049</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02819685538152228</v>
+        <v>0.03194785704531804</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1587325898.332178</v>
+        <v>1659882496.277884</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1888226012118541</v>
+        <v>0.1932627498163994</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04480915238487504</v>
+        <v>0.04210254484527459</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4447282781.644243</v>
+        <v>5066990283.70578</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07110745571486789</v>
+        <v>0.08541694540970944</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0371858588237387</v>
+        <v>0.03467989930070708</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4180214542.888282</v>
+        <v>4611503943.258667</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1198807820694494</v>
+        <v>0.1680847898444322</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03337133731332202</v>
+        <v>0.02847837302946404</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3857789634.548893</v>
+        <v>4284886380.061196</v>
       </c>
       <c r="F65" t="n">
-        <v>0.112119480757427</v>
+        <v>0.1061043663064653</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03127861776921866</v>
+        <v>0.02091417450901498</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4911781882.128102</v>
+        <v>4424091571.223576</v>
       </c>
       <c r="F66" t="n">
-        <v>0.120220640239033</v>
+        <v>0.1301786229370136</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03459119832252954</v>
+        <v>0.03615820043074343</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3361935754.283662</v>
+        <v>3048761200.003479</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08147666680738704</v>
+        <v>0.06821093985189998</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05058799146676402</v>
+        <v>0.04128322948632559</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4202922671.994993</v>
+        <v>4660441541.850137</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1297456016430891</v>
+        <v>0.1273982769375395</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03949198076759879</v>
+        <v>0.03617849101735718</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1669036538.298532</v>
+        <v>2248827230.064995</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1730551558171265</v>
+        <v>0.164681731421792</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03926515591404857</v>
+        <v>0.0572935032167202</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2631271110.381937</v>
+        <v>2465707090.835648</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08794441097677479</v>
+        <v>0.08054877445878117</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04880519179455946</v>
+        <v>0.03357459902019854</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3433789145.227537</v>
+        <v>5071578823.967807</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1327113645507127</v>
+        <v>0.1126823414136647</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02768061594843791</v>
+        <v>0.02577714490001072</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1631935041.89601</v>
+        <v>2237628771.596344</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08867815642301767</v>
+        <v>0.06758478107020743</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05187618610501616</v>
+        <v>0.04602526472770908</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3470662041.937257</v>
+        <v>3419685920.518823</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09485607094192444</v>
+        <v>0.09717987250717311</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0362571986171492</v>
+        <v>0.04833107208709329</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2641595889.579688</v>
+        <v>2589609658.771181</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1369095006628829</v>
+        <v>0.1569810303273474</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03118929271732309</v>
+        <v>0.02143408886811054</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2109268107.695903</v>
+        <v>2389167040.478691</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1210429265369328</v>
+        <v>0.1377640502203209</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02349128914432061</v>
+        <v>0.02989257431340082</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3346094351.766185</v>
+        <v>3278805018.163589</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1243694875596694</v>
+        <v>0.08684516670210558</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02965604902031997</v>
+        <v>0.02279681888800438</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2240909394.532989</v>
+        <v>1454871222.57633</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1508732939369242</v>
+        <v>0.154566979358266</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0198993418210143</v>
+        <v>0.02385369821470303</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3748898221.108396</v>
+        <v>4425909012.394516</v>
       </c>
       <c r="F78" t="n">
-        <v>0.117089085682772</v>
+        <v>0.1059771054671912</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04957151351924369</v>
+        <v>0.04342340247174038</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1809622917.676413</v>
+        <v>1193635392.411771</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1124501233379095</v>
+        <v>0.1765073586179836</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03504006392775399</v>
+        <v>0.03610580231138008</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5114015567.37053</v>
+        <v>4808213318.951891</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0739683838591554</v>
+        <v>0.09503935381646483</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03293373522306786</v>
+        <v>0.02649792468546735</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4786154741.159114</v>
+        <v>4903206974.881988</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08443221551768992</v>
+        <v>0.09750870316340901</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02579376432578762</v>
+        <v>0.02167649520611805</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4928149243.669574</v>
+        <v>5313767451.926371</v>
       </c>
       <c r="F82" t="n">
-        <v>0.202231962281871</v>
+        <v>0.1387764347263841</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02034232695970789</v>
+        <v>0.0207030340818313</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1756670103.286613</v>
+        <v>1517542612.047786</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1203267891698194</v>
+        <v>0.1098113274387142</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03078926266870254</v>
+        <v>0.03582535619149207</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2210506133.681341</v>
+        <v>2283850995.427652</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07429091695776567</v>
+        <v>0.09830962119679298</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05091928131805952</v>
+        <v>0.04016809936831724</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2658420925.117229</v>
+        <v>2773651885.748806</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1700628508359358</v>
+        <v>0.1567653580430755</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05519229766240812</v>
+        <v>0.0549595276532213</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1968481990.036193</v>
+        <v>1709433685.317317</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1372571537731442</v>
+        <v>0.1697024926614842</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02559296674716671</v>
+        <v>0.02015649651883792</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1017171901.463529</v>
+        <v>953917093.6189339</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1661189315964632</v>
+        <v>0.1767756613518355</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03964711491364659</v>
+        <v>0.02686352478810456</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3089326470.825862</v>
+        <v>2481484245.690845</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1536181551946538</v>
+        <v>0.1133929787401541</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03723178032911989</v>
+        <v>0.03284536964233813</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2691879033.101566</v>
+        <v>3347478300.278769</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1029843257786181</v>
+        <v>0.1035140518538651</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02597998958536483</v>
+        <v>0.03007777268795489</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1564683495.829873</v>
+        <v>1733078795.758117</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1121655759704451</v>
+        <v>0.09676077104260816</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03574719092530819</v>
+        <v>0.04660687604134495</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1330830899.475911</v>
+        <v>1763954140.798881</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1768694714498808</v>
+        <v>0.1821514262780722</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04468214812263476</v>
+        <v>0.0537612853322761</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2100299869.348113</v>
+        <v>2793210247.582081</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07188187171227482</v>
+        <v>0.07650468193357488</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03422167819928044</v>
+        <v>0.0343766202093906</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4145160770.24433</v>
+        <v>3621373060.500651</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1238665270952509</v>
+        <v>0.1221335463385317</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0444096946133279</v>
+        <v>0.03780973971542834</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2337844534.346441</v>
+        <v>1691194328.554094</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1306201005252339</v>
+        <v>0.131659098731542</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03591700631072734</v>
+        <v>0.03822816234442707</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3228229041.519288</v>
+        <v>2186514732.599705</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1083944142289658</v>
+        <v>0.09550527538364723</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0341009248254067</v>
+        <v>0.04200162205626736</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1566698430.139648</v>
+        <v>2126946520.019408</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1244192963356066</v>
+        <v>0.1415802203050245</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04565599869747514</v>
+        <v>0.04347457210291143</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3995073822.721688</v>
+        <v>4477035318.840623</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1400947161910624</v>
+        <v>0.139902479051308</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01963093692246978</v>
+        <v>0.02619393342542016</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3017906332.456286</v>
+        <v>2499453821.424582</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09734581430094746</v>
+        <v>0.1020887011134603</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03060579956506188</v>
+        <v>0.02347696072627547</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3199196723.035872</v>
+        <v>3371627110.116464</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08971905224365259</v>
+        <v>0.1290408579479683</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02893722492216445</v>
+        <v>0.02689352883196086</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2992697187.394426</v>
+        <v>4544158407.692737</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1424865004970438</v>
+        <v>0.1283158304553094</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01879463704011565</v>
+        <v>0.01729118278219977</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3123296070.329469</v>
+        <v>2398218053.773771</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1783800384781564</v>
+        <v>0.1781893596270567</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05460830856386795</v>
+        <v>0.05082000369881453</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_77.xlsx
+++ b/output/fit_clients/fit_round_77.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2172378694.42174</v>
+        <v>2328676426.236574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07340773521437907</v>
+        <v>0.1110157097386292</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03569896393409793</v>
+        <v>0.03566002316442656</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1910694055.787547</v>
+        <v>2520186244.378622</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1349434317898327</v>
+        <v>0.1253283311200797</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04243931592132551</v>
+        <v>0.0310538219532869</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3699109390.497408</v>
+        <v>3866721576.594619</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1057304932319026</v>
+        <v>0.1522602281770279</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02715140359825754</v>
+        <v>0.03357020393253397</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>77</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3254412439.35578</v>
+        <v>3083471492.817169</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06821966230579893</v>
+        <v>0.08486070584587878</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03549493195384974</v>
+        <v>0.03377598010291197</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2503311401.139213</v>
+        <v>2378157406.446949</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1051275733471878</v>
+        <v>0.1472775164071994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05537580239399021</v>
+        <v>0.04731104997631178</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2078206182.618017</v>
+        <v>2333241011.057179</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09874207434849668</v>
+        <v>0.06642748432842531</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04380373164752308</v>
+        <v>0.03474564517701319</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3902251549.02599</v>
+        <v>2916088859.258024</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2111377030813918</v>
+        <v>0.1969374169223632</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0308723241501901</v>
+        <v>0.03116082527561616</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>76</v>
+      </c>
+      <c r="K8" t="n">
+        <v>101.3807382758302</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1989360454.320519</v>
+        <v>1864608917.118853</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1824540284844053</v>
+        <v>0.133352437766545</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03220884936418486</v>
+        <v>0.02804249829664891</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5859977916.498587</v>
+        <v>5090689584.714252</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1578095627020184</v>
+        <v>0.1596871768115579</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03818429232188756</v>
+        <v>0.0429147621961592</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>71</v>
+      </c>
+      <c r="J10" t="n">
+        <v>77</v>
+      </c>
+      <c r="K10" t="n">
+        <v>201.7391097103066</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4262392667.644523</v>
+        <v>2803525445.503525</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1325131001031305</v>
+        <v>0.1159981973896281</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03443440410075634</v>
+        <v>0.03230604731652758</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>76</v>
+      </c>
+      <c r="K11" t="n">
+        <v>105.4029006072878</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2070578103.4521</v>
+        <v>2848163420.38977</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1876304399609079</v>
+        <v>0.1979923026417867</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04739286784959725</v>
+        <v>0.03869399064444816</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4621438575.666455</v>
+        <v>5117517358.539049</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06482021050497648</v>
+        <v>0.09976312617878916</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02007303427089276</v>
+        <v>0.02197922661091402</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>39</v>
+      </c>
+      <c r="J13" t="n">
+        <v>77</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3310630218.705963</v>
+        <v>3782398840.758458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1454252872439555</v>
+        <v>0.1282419493218684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02964166258102556</v>
+        <v>0.034525174487944</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>77</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1338365360.65873</v>
+        <v>1295956143.433313</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09055557024445782</v>
+        <v>0.1043650686852832</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04287007066878618</v>
+        <v>0.03708215737932806</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2178472076.695341</v>
+        <v>1994596544.559434</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09552040605033865</v>
+        <v>0.09992682235754781</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03959665515228993</v>
+        <v>0.04263127041269776</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5270272787.113404</v>
+        <v>4646751907.797359</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1330399257353593</v>
+        <v>0.1295529611201065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05212933869694499</v>
+        <v>0.04009201197437988</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>37</v>
+      </c>
+      <c r="J17" t="n">
+        <v>76</v>
+      </c>
+      <c r="K17" t="n">
+        <v>160.288988906384</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3400506434.909366</v>
+        <v>2825483823.293175</v>
       </c>
       <c r="F18" t="n">
-        <v>0.163004570653533</v>
+        <v>0.1572664371279676</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02745948027646027</v>
+        <v>0.02479692242868269</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>75</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>874735274.6403544</v>
+        <v>876835587.597823</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1439802144441592</v>
+        <v>0.1725513511243852</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02068726405208504</v>
+        <v>0.01756639294023342</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2295665649.802541</v>
+        <v>1784751985.545975</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1214959828266201</v>
+        <v>0.1230805928368632</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02297600522163414</v>
+        <v>0.02507396712409739</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1995994502.903975</v>
+        <v>1643166132.624428</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0983431835935387</v>
+        <v>0.1010464525164347</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03394983233976213</v>
+        <v>0.0431823702136397</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3876215775.08795</v>
+        <v>2566743006.108306</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1052895472589172</v>
+        <v>0.1142645868727421</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04064695121148282</v>
+        <v>0.04618539843174491</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1306621997.35305</v>
+        <v>1062172406.234528</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1855944057676048</v>
+        <v>0.1835048911160342</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03914398822366556</v>
+        <v>0.05400138774019114</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2604596866.752661</v>
+        <v>3703193037.676022</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09353350260454135</v>
+        <v>0.1234978487726634</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03566207845549198</v>
+        <v>0.03641668969464196</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>77</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>949659805.7848344</v>
+        <v>1131121134.447954</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1070141511822329</v>
+        <v>0.08641180178007095</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02777363430718997</v>
+        <v>0.01964438312012009</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1316804625.938107</v>
+        <v>954133900.6705053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09777767307083868</v>
+        <v>0.1200840032534729</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03903191506038512</v>
+        <v>0.03178640048179977</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3622015518.819203</v>
+        <v>4091156382.521489</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1004363961879442</v>
+        <v>0.1476391109918611</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01730083006614082</v>
+        <v>0.02269205564823182</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>30</v>
+      </c>
+      <c r="J27" t="n">
+        <v>77</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3095691732.43023</v>
+        <v>3182812053.262059</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1220945808832813</v>
+        <v>0.1327441856781711</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04563948152375243</v>
+        <v>0.04143278336503071</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>73</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5874467035.02588</v>
+        <v>5428762346.003875</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1266395607578092</v>
+        <v>0.1291594457022793</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0317260198022483</v>
+        <v>0.04428716745779224</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>71</v>
+      </c>
+      <c r="J29" t="n">
+        <v>77</v>
+      </c>
+      <c r="K29" t="n">
+        <v>209.4895686263786</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2239413562.615964</v>
+        <v>2371185898.835986</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1366552528795957</v>
+        <v>0.1087629087426526</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03304951414006196</v>
+        <v>0.03737577426591267</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1501034785.258319</v>
+        <v>1308167116.280262</v>
       </c>
       <c r="F31" t="n">
-        <v>0.111056689507941</v>
+        <v>0.09356744722260428</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05130327921277541</v>
+        <v>0.04563642176161511</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1753264047.820522</v>
+        <v>1639261506.771909</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09355229282344447</v>
+        <v>0.07903083931399511</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03060375019697568</v>
+        <v>0.02615997491267228</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2007778380.600815</v>
+        <v>2232984100.562221</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1908000754958293</v>
+        <v>0.1523114975591878</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05990512756537298</v>
+        <v>0.05100793066376735</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1412539186.99284</v>
+        <v>1100001988.699455</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09199362226806923</v>
+        <v>0.08486671826090056</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01801022116579203</v>
+        <v>0.02501172489892222</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>865891780.347625</v>
+        <v>978937243.1385171</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08485679801741505</v>
+        <v>0.1174803487154257</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0417079756046148</v>
+        <v>0.04346584423478066</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2739032842.11167</v>
+        <v>2963433471.554338</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1240051642762047</v>
+        <v>0.1138395434412851</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02355229776495218</v>
+        <v>0.0174259583047822</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2605783591.910505</v>
+        <v>2350782689.485664</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09890938883242816</v>
+        <v>0.08899380414222369</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0348660407326359</v>
+        <v>0.03062809879458575</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1554099454.720932</v>
+        <v>1329817374.482846</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08719780380476537</v>
+        <v>0.08032308511516165</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03048477255754834</v>
+        <v>0.03451796839511199</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1393077077.878001</v>
+        <v>2168330886.464908</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1311793729756186</v>
+        <v>0.1526005989130682</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02753292487759859</v>
+        <v>0.02364488289651883</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1387749796.436775</v>
+        <v>1543369239.18661</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1126578211469497</v>
+        <v>0.1121891326687881</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05837059038803393</v>
+        <v>0.05138387625907947</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2177905587.991692</v>
+        <v>2090577347.669273</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1069786793692814</v>
+        <v>0.1043387945255834</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03592879068514122</v>
+        <v>0.04568544894401256</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3693585693.984979</v>
+        <v>3808900829.369816</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1042515468020585</v>
+        <v>0.1182462558100787</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04353108239497498</v>
+        <v>0.04056938443854886</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>29</v>
+      </c>
+      <c r="J42" t="n">
+        <v>77</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3015106507.647817</v>
+        <v>1887880001.099157</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1921748272158371</v>
+        <v>0.1692412117285295</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01678656833575809</v>
+        <v>0.01624018258221575</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2087979950.81063</v>
+        <v>1511289338.252674</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07087285202577487</v>
+        <v>0.06784141289074586</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0360191048377283</v>
+        <v>0.02664460574420721</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2304226346.774693</v>
+        <v>2169150014.61711</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1574069418743682</v>
+        <v>0.142377333301455</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03850272109189701</v>
+        <v>0.03481684618525663</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5036010054.984452</v>
+        <v>3626405539.871399</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1739085606072311</v>
+        <v>0.1111157286909877</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04806343752977775</v>
+        <v>0.06044650476968016</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>45</v>
+      </c>
+      <c r="J46" t="n">
+        <v>76</v>
+      </c>
+      <c r="K46" t="n">
+        <v>157.6079088889035</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3138235553.199879</v>
+        <v>3404639753.436046</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1246603952057346</v>
+        <v>0.1281425014474008</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05566120945491712</v>
+        <v>0.04088661858483338</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>34</v>
+      </c>
+      <c r="J47" t="n">
+        <v>77</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3027708910.737885</v>
+        <v>3467257259.0243</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1103219242635259</v>
+        <v>0.08237896490442626</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03570824061737032</v>
+        <v>0.02516165371469056</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>28</v>
+      </c>
+      <c r="J48" t="n">
+        <v>77</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1680029789.590084</v>
+        <v>1222519085.062496</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1373918724198587</v>
+        <v>0.1555026564940229</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0377382637400614</v>
+        <v>0.02869019123082323</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3413734474.088573</v>
+        <v>3227901960.911988</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1144924491235886</v>
+        <v>0.1234415391881505</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04628199210985493</v>
+        <v>0.05167295472757914</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>74</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1488327251.36962</v>
+        <v>1168388911.861498</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1534302829081835</v>
+        <v>0.1675863934032635</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03399032109852135</v>
+        <v>0.05117693600997498</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3460929973.202505</v>
+        <v>3187767315.469517</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1291840870572197</v>
+        <v>0.1387120999284303</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06159267998643075</v>
+        <v>0.03754343894051782</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>60</v>
+      </c>
+      <c r="J52" t="n">
+        <v>76</v>
+      </c>
+      <c r="K52" t="n">
+        <v>129.6646854471061</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2353278262.916194</v>
+        <v>2853562028.018449</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1263491282992514</v>
+        <v>0.1741846314318687</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02374287750849472</v>
+        <v>0.02430519607068568</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3316318384.222873</v>
+        <v>3652824027.385471</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1119237842235714</v>
+        <v>0.1029084634924325</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03684067467362393</v>
+        <v>0.03748346377631764</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>35</v>
+      </c>
+      <c r="J54" t="n">
+        <v>76</v>
+      </c>
+      <c r="K54" t="n">
+        <v>159.5758315466509</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4587688729.431785</v>
+        <v>4139901005.871757</v>
       </c>
       <c r="F55" t="n">
-        <v>0.155576262822532</v>
+        <v>0.1978149687499471</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02350901234555599</v>
+        <v>0.02155322652788394</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>35</v>
+      </c>
+      <c r="J55" t="n">
+        <v>77</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1697952692.469388</v>
+        <v>1139596085.958272</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1234255763917907</v>
+        <v>0.1574848320931602</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04020438106734468</v>
+        <v>0.03537441207602242</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2442,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3689853068.334711</v>
+        <v>3039457030.141243</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1715043102624729</v>
+        <v>0.1837403842128425</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02488223256630398</v>
+        <v>0.02327687121547719</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>75</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1903886218.092393</v>
+        <v>1368836859.838161</v>
       </c>
       <c r="F58" t="n">
-        <v>0.187715578483298</v>
+        <v>0.1612443790370908</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03032481172099243</v>
+        <v>0.02454036656638806</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2512,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3831920040.498389</v>
+        <v>5263364593.470943</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09858677802356086</v>
+        <v>0.1015501377897027</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0437825876395573</v>
+        <v>0.04061191546262196</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>37</v>
+      </c>
+      <c r="J59" t="n">
+        <v>77</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2541,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3375857992.52216</v>
+        <v>3611653030.051888</v>
       </c>
       <c r="F60" t="n">
-        <v>0.19616617464659</v>
+        <v>0.143814964571645</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02178533373368703</v>
+        <v>0.02469110527326391</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76</v>
+      </c>
+      <c r="K60" t="n">
+        <v>153.861762196131</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2584,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3083968392.78769</v>
+        <v>2729650611.033472</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1579766811949049</v>
+        <v>0.1274770738208161</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03194785704531804</v>
+        <v>0.0310508245430506</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1659882496.277884</v>
+        <v>1976132241.062663</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1932627498163994</v>
+        <v>0.1481376504974619</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04210254484527459</v>
+        <v>0.03402178009680251</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2654,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5066990283.70578</v>
+        <v>3803188481.649553</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08541694540970944</v>
+        <v>0.1016996852472402</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03467989930070708</v>
+        <v>0.03817685329502777</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>38</v>
+      </c>
+      <c r="J63" t="n">
+        <v>76</v>
+      </c>
+      <c r="K63" t="n">
+        <v>162.8276727538873</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4611503943.258667</v>
+        <v>3866999844.709949</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1680847898444322</v>
+        <v>0.1467769486318026</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02847837302946404</v>
+        <v>0.03350162861496539</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>38</v>
+      </c>
+      <c r="J64" t="n">
+        <v>76</v>
+      </c>
+      <c r="K64" t="n">
+        <v>172.109725848302</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4284886380.061196</v>
+        <v>5353528797.864178</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1061043663064653</v>
+        <v>0.1332625396730792</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02091417450901498</v>
+        <v>0.02949317375736784</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>61</v>
+      </c>
+      <c r="J65" t="n">
+        <v>77</v>
+      </c>
+      <c r="K65" t="n">
+        <v>183.1682446829119</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4424091571.223576</v>
+        <v>4958891743.719841</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1301786229370136</v>
+        <v>0.1092790881818237</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03615820043074343</v>
+        <v>0.0507233588580711</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>38</v>
+      </c>
+      <c r="J66" t="n">
+        <v>76</v>
+      </c>
+      <c r="K66" t="n">
+        <v>172.4528147940517</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3048761200.003479</v>
+        <v>2314707850.82249</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06821093985189998</v>
+        <v>0.08815843743672663</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04128322948632559</v>
+        <v>0.03975478471598718</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4660441541.850137</v>
+        <v>4911929769.749156</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1273982769375395</v>
+        <v>0.1146972381582484</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03617849101735718</v>
+        <v>0.03168938847141296</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>38</v>
+      </c>
+      <c r="J68" t="n">
+        <v>77</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2248827230.064995</v>
+        <v>1608300636.272631</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164681731421792</v>
+        <v>0.1468377949734023</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0572935032167202</v>
+        <v>0.05321243529602405</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2465707090.835648</v>
+        <v>3289967493.352374</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08054877445878117</v>
+        <v>0.08231503530539824</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03357459902019854</v>
+        <v>0.03420980017742462</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5071578823.967807</v>
+        <v>4724213992.12768</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1126823414136647</v>
+        <v>0.1328921043572623</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02577714490001072</v>
+        <v>0.03201509844595764</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>64</v>
+      </c>
+      <c r="J71" t="n">
+        <v>77</v>
+      </c>
+      <c r="K71" t="n">
+        <v>186.1048912433898</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2237628771.596344</v>
+        <v>1806633984.78642</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06758478107020743</v>
+        <v>0.101623913630923</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04602526472770908</v>
+        <v>0.04084521771322251</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3419685920.518823</v>
+        <v>2782359759.057862</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09717987250717311</v>
+        <v>0.1127584488573846</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04833107208709329</v>
+        <v>0.04389447381634219</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2589609658.771181</v>
+        <v>4016772487.403035</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1569810303273474</v>
+        <v>0.1163031397205949</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02143408886811054</v>
+        <v>0.02839628603042978</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>22</v>
+      </c>
+      <c r="J74" t="n">
+        <v>77</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2389167040.478691</v>
+        <v>2281600638.329798</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1377640502203209</v>
+        <v>0.1133166130750195</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02989257431340082</v>
+        <v>0.03651066616446438</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3278805018.163589</v>
+        <v>4130659142.480234</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08684516670210558</v>
+        <v>0.0840594865623077</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02279681888800438</v>
+        <v>0.02988928398919975</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>35</v>
+      </c>
+      <c r="J76" t="n">
+        <v>77</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1454871222.57633</v>
+        <v>2113399991.923391</v>
       </c>
       <c r="F77" t="n">
-        <v>0.154566979358266</v>
+        <v>0.171252541117835</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02385369821470303</v>
+        <v>0.02094495352642199</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4425909012.394516</v>
+        <v>4744550790.508883</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1059771054671912</v>
+        <v>0.09460055961822059</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04342340247174038</v>
+        <v>0.05037572824978162</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>37</v>
+      </c>
+      <c r="J78" t="n">
+        <v>77</v>
+      </c>
+      <c r="K78" t="n">
+        <v>188.7278366288556</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1193635392.411771</v>
+        <v>1614832137.966773</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1765073586179836</v>
+        <v>0.1714810374877506</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03610580231138008</v>
+        <v>0.0285949761972978</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4808213318.951891</v>
+        <v>3855404064.239882</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09503935381646483</v>
+        <v>0.07311313797339417</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02649792468546735</v>
+        <v>0.02775662745640756</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>37</v>
+      </c>
+      <c r="J80" t="n">
+        <v>76</v>
+      </c>
+      <c r="K80" t="n">
+        <v>140.7706365664841</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4903206974.881988</v>
+        <v>3473303426.658429</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09750870316340901</v>
+        <v>0.1182261073192582</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02167649520611805</v>
+        <v>0.02417803505000823</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>35</v>
+      </c>
+      <c r="J81" t="n">
+        <v>76</v>
+      </c>
+      <c r="K81" t="n">
+        <v>119.1901566810056</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5313767451.926371</v>
+        <v>4235099493.793831</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1387764347263841</v>
+        <v>0.2027965663128727</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0207030340818313</v>
+        <v>0.02340372483129157</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>47</v>
+      </c>
+      <c r="J82" t="n">
+        <v>77</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1517542612.047786</v>
+        <v>1775753720.67955</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1098113274387142</v>
+        <v>0.1211228491177187</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03582535619149207</v>
+        <v>0.0284343673500385</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2283850995.427652</v>
+        <v>1733161249.418567</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09830962119679298</v>
+        <v>0.09650686284764892</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04016809936831724</v>
+        <v>0.03384254089804051</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2773651885.748806</v>
+        <v>2370082715.48993</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1567653580430755</v>
+        <v>0.1828756659854064</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0549595276532213</v>
+        <v>0.05139169148594311</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1709433685.317317</v>
+        <v>2354631146.771403</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1697024926614842</v>
+        <v>0.1316708486025885</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02015649651883792</v>
+        <v>0.02512942681316905</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>953917093.6189339</v>
+        <v>1037515690.884727</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1767756613518355</v>
+        <v>0.1330164067704115</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02686352478810456</v>
+        <v>0.03962451683575586</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2481484245.690845</v>
+        <v>3608462902.878423</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1133929787401541</v>
+        <v>0.1126562824415833</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03284536964233813</v>
+        <v>0.02517118589200678</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>76</v>
+      </c>
+      <c r="K88" t="n">
+        <v>167.8055428892134</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3347478300.278769</v>
+        <v>2309351463.940133</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1035140518538651</v>
+        <v>0.1325652218715361</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03007777268795489</v>
+        <v>0.02842874647391083</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1733078795.758117</v>
+        <v>1777771590.821907</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09676077104260816</v>
+        <v>0.09532424757912659</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04660687604134495</v>
+        <v>0.0508619863386886</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1763954140.798881</v>
+        <v>1319574186.230367</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1821514262780722</v>
+        <v>0.1655523156449336</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0537612853322761</v>
+        <v>0.05577938712701067</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2793210247.582081</v>
+        <v>2663569993.997421</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07650468193357488</v>
+        <v>0.08762248000424291</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0343766202093906</v>
+        <v>0.04106454754730197</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3621373060.500651</v>
+        <v>4061369865.104187</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1221335463385317</v>
+        <v>0.1240348736125686</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03780973971542834</v>
+        <v>0.04519826647773736</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>35</v>
+      </c>
+      <c r="J93" t="n">
+        <v>76</v>
+      </c>
+      <c r="K93" t="n">
+        <v>165.6345034711028</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1691194328.554094</v>
+        <v>1561513174.570133</v>
       </c>
       <c r="F94" t="n">
-        <v>0.131659098731542</v>
+        <v>0.1484733173987515</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03822816234442707</v>
+        <v>0.04299275821289614</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2186514732.599705</v>
+        <v>3003247195.355512</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09550527538364723</v>
+        <v>0.1332865125387029</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04200162205626736</v>
+        <v>0.04041592765871756</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2126946520.019408</v>
+        <v>2127186737.503235</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1415802203050245</v>
+        <v>0.08811329670286547</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04347457210291143</v>
+        <v>0.04345822857888416</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4477035318.840623</v>
+        <v>4133632337.368515</v>
       </c>
       <c r="F97" t="n">
-        <v>0.139902479051308</v>
+        <v>0.1563686065686752</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02619393342542016</v>
+        <v>0.02868867920944242</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>37</v>
+      </c>
+      <c r="J97" t="n">
+        <v>76</v>
+      </c>
+      <c r="K97" t="n">
+        <v>175.5218637342089</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2499453821.424582</v>
+        <v>3584227015.225214</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1020887011134603</v>
+        <v>0.118077335776691</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02347696072627547</v>
+        <v>0.03089456127374444</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>77</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3371627110.116464</v>
+        <v>2502189718.234875</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1290408579479683</v>
+        <v>0.1477461969210705</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02689352883196086</v>
+        <v>0.02966214591217721</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4544158407.692737</v>
+        <v>3180660616.264071</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1283158304553094</v>
+        <v>0.1261920174309411</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01729118278219977</v>
+        <v>0.01875132039027827</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>32</v>
+      </c>
+      <c r="J100" t="n">
+        <v>75</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2398218053.773771</v>
+        <v>2253481826.127226</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1781893596270567</v>
+        <v>0.2193057879651253</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05082000369881453</v>
+        <v>0.04953578262037316</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
